--- a/pred_ohlcv/54/2019-11-14 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-14 ABT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" t="n">
         <v>240</v>
@@ -417,15 +422,18 @@
         <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F2" t="n">
-        <v>8634.5933</v>
+        <v>511.6917</v>
       </c>
       <c r="G2" t="n">
-        <v>235.95</v>
+        <v>236.0166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>700.9893</v>
+        <v>8634.5933</v>
       </c>
       <c r="G3" t="n">
-        <v>235.8833333333333</v>
+        <v>235.95</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" t="n">
         <v>240</v>
@@ -469,15 +480,18 @@
         <v>240</v>
       </c>
       <c r="E4" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" t="n">
-        <v>1724.4688</v>
+        <v>700.9893</v>
       </c>
       <c r="G4" t="n">
-        <v>235.8666666666667</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>240</v>
       </c>
       <c r="C5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
         <v>240</v>
       </c>
       <c r="E5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>895.8898</v>
+        <v>1724.4688</v>
       </c>
       <c r="G5" t="n">
-        <v>235.85</v>
+        <v>235.8666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="n">
         <v>239</v>
       </c>
       <c r="D6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E6" t="n">
         <v>239</v>
       </c>
       <c r="F6" t="n">
-        <v>121.362</v>
+        <v>895.8898</v>
       </c>
       <c r="G6" t="n">
-        <v>235.8333333333333</v>
+        <v>235.85</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>239</v>
       </c>
       <c r="F7" t="n">
-        <v>3260.9811</v>
+        <v>121.362</v>
       </c>
       <c r="G7" t="n">
-        <v>235.8666666666667</v>
+        <v>235.8333333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F8" t="n">
-        <v>480.1121</v>
+        <v>3260.9811</v>
       </c>
       <c r="G8" t="n">
         <v>235.8666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>237</v>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D9" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E9" t="n">
         <v>237</v>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>480.1121</v>
       </c>
       <c r="G9" t="n">
-        <v>236</v>
+        <v>235.8666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C10" t="n">
         <v>242</v>
@@ -625,15 +654,18 @@
         <v>242</v>
       </c>
       <c r="E10" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F10" t="n">
-        <v>417.9433</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>236.0333333333333</v>
+        <v>236</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,21 +677,24 @@
         <v>242</v>
       </c>
       <c r="C11" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" t="n">
         <v>242</v>
       </c>
       <c r="F11" t="n">
-        <v>156.0875</v>
+        <v>417.9433</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1666666666667</v>
+        <v>236.0333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>242</v>
       </c>
       <c r="C12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E12" t="n">
         <v>242</v>
       </c>
       <c r="F12" t="n">
-        <v>13.32</v>
+        <v>156.0875</v>
       </c>
       <c r="G12" t="n">
-        <v>236.2833333333333</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>242</v>
       </c>
       <c r="C13" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D13" t="n">
         <v>242</v>
       </c>
       <c r="E13" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F13" t="n">
         <v>13.32</v>
       </c>
       <c r="G13" t="n">
-        <v>236.3666666666667</v>
+        <v>236.2833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C14" t="n">
         <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E14" t="n">
         <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>255.5242</v>
+        <v>13.32</v>
       </c>
       <c r="G14" t="n">
         <v>236.3666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>239</v>
       </c>
       <c r="F15" t="n">
-        <v>89.6139</v>
+        <v>255.5242</v>
       </c>
       <c r="G15" t="n">
-        <v>236.4333333333333</v>
+        <v>236.3666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>89.6139</v>
       </c>
       <c r="G16" t="n">
-        <v>236.4666666666667</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C17" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D17" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F17" t="n">
-        <v>3159.1182</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>236.55</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C18" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D18" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E18" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F18" t="n">
-        <v>2691.093</v>
+        <v>3159.1182</v>
       </c>
       <c r="G18" t="n">
         <v>236.55</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>233</v>
       </c>
       <c r="C19" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D19" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E19" t="n">
         <v>233</v>
       </c>
       <c r="F19" t="n">
-        <v>774.5759</v>
+        <v>2691.093</v>
       </c>
       <c r="G19" t="n">
-        <v>236.5666666666667</v>
+        <v>236.55</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7455</v>
+        <v>774.5759</v>
       </c>
       <c r="G20" t="n">
-        <v>236.6333333333333</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>234</v>
       </c>
       <c r="F21" t="n">
-        <v>1400</v>
+        <v>167.7455</v>
       </c>
       <c r="G21" t="n">
-        <v>236.5166666666667</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F22" t="n">
-        <v>8653.4421</v>
+        <v>1400</v>
       </c>
       <c r="G22" t="n">
         <v>236.5166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" t="n">
-        <v>2500.3092</v>
+        <v>8653.4421</v>
       </c>
       <c r="G23" t="n">
-        <v>236.5333333333333</v>
+        <v>236.5166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2500.3092</v>
       </c>
       <c r="G24" t="n">
-        <v>236.5166666666667</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" t="n">
         <v>235</v>
@@ -1015,15 +1089,18 @@
         <v>235</v>
       </c>
       <c r="E25" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F25" t="n">
-        <v>3250</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>236.5666666666667</v>
+        <v>236.5166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>234</v>
+      </c>
+      <c r="C26" t="n">
         <v>235</v>
       </c>
-      <c r="C26" t="n">
-        <v>242</v>
-      </c>
       <c r="D26" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E26" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" t="n">
-        <v>1579</v>
+        <v>3250</v>
       </c>
       <c r="G26" t="n">
-        <v>236.7333333333333</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>235</v>
       </c>
       <c r="C27" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" t="n">
         <v>235</v>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>1579</v>
       </c>
       <c r="G27" t="n">
-        <v>236.9166666666667</v>
+        <v>236.7333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D28" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E28" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" t="n">
-        <v>62.03</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>237</v>
+        <v>236.9166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>62.03</v>
       </c>
       <c r="G29" t="n">
-        <v>236.9833333333333</v>
+        <v>237</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C30" t="n">
         <v>240</v>
@@ -1145,15 +1234,18 @@
         <v>240</v>
       </c>
       <c r="E30" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F30" t="n">
-        <v>342.74</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>237.1</v>
+        <v>236.9833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C31" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D31" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E31" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>342.74</v>
       </c>
       <c r="G31" t="n">
-        <v>237.2</v>
+        <v>237.1</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F32" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>237.2333333333333</v>
+        <v>237.2</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F33" t="n">
-        <v>1012.9893</v>
+        <v>160</v>
       </c>
       <c r="G33" t="n">
-        <v>237.2666666666667</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>238</v>
       </c>
       <c r="F34" t="n">
-        <v>52</v>
+        <v>1012.9893</v>
       </c>
       <c r="G34" t="n">
-        <v>237.3</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>238</v>
       </c>
       <c r="F35" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3166666666667</v>
+        <v>237.3</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C36" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D36" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E36" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F36" t="n">
-        <v>5966.716</v>
+        <v>112</v>
       </c>
       <c r="G36" t="n">
-        <v>237.2333333333333</v>
+        <v>237.3166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C37" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D37" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E37" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F37" t="n">
-        <v>661</v>
+        <v>5966.716</v>
       </c>
       <c r="G37" t="n">
-        <v>237.25</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D38" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F38" t="n">
-        <v>2648.5574</v>
+        <v>661</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3</v>
+        <v>237.25</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" t="n">
         <v>236</v>
       </c>
       <c r="D39" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" t="n">
         <v>236</v>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>2648.5574</v>
       </c>
       <c r="G39" t="n">
-        <v>237.25</v>
+        <v>237.3</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>236</v>
       </c>
       <c r="F40" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="G40" t="n">
-        <v>237.1833333333333</v>
+        <v>237.25</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>236</v>
       </c>
       <c r="C41" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D41" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E41" t="n">
         <v>236</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="G41" t="n">
-        <v>237.1166666666667</v>
+        <v>237.1833333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C42" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D42" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E42" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F42" t="n">
-        <v>5592.4025</v>
+        <v>500</v>
       </c>
       <c r="G42" t="n">
-        <v>236.9666666666667</v>
+        <v>237.1166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>235</v>
+      </c>
+      <c r="C43" t="n">
         <v>233</v>
       </c>
-      <c r="C43" t="n">
-        <v>232</v>
-      </c>
       <c r="D43" t="n">
+        <v>235</v>
+      </c>
+      <c r="E43" t="n">
         <v>233</v>
       </c>
-      <c r="E43" t="n">
-        <v>232</v>
-      </c>
       <c r="F43" t="n">
-        <v>4035.2971</v>
+        <v>5592.4025</v>
       </c>
       <c r="G43" t="n">
-        <v>236.8833333333333</v>
+        <v>236.9666666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C44" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D44" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E44" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>4035.2971</v>
       </c>
       <c r="G44" t="n">
-        <v>236.8333333333333</v>
+        <v>236.8833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>236</v>
+      </c>
+      <c r="C45" t="n">
         <v>237</v>
       </c>
-      <c r="C45" t="n">
-        <v>238</v>
-      </c>
       <c r="D45" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E45" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F45" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G45" t="n">
-        <v>236.8</v>
+        <v>236.8333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>237</v>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G46" t="n">
-        <v>236.8333333333333</v>
+        <v>236.8</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C47" t="n">
+        <v>238</v>
+      </c>
+      <c r="D47" t="n">
+        <v>238</v>
+      </c>
+      <c r="E47" t="n">
         <v>237</v>
       </c>
-      <c r="D47" t="n">
-        <v>237</v>
-      </c>
-      <c r="E47" t="n">
-        <v>232</v>
-      </c>
       <c r="F47" t="n">
-        <v>5047.8908</v>
+        <v>500</v>
       </c>
       <c r="G47" t="n">
-        <v>236.8833333333333</v>
+        <v>236.8333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1747,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C48" t="n">
         <v>237</v>
@@ -1613,15 +1756,18 @@
         <v>237</v>
       </c>
       <c r="E48" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>5047.8908</v>
       </c>
       <c r="G48" t="n">
-        <v>236.9333333333333</v>
+        <v>236.8833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C49" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D49" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E49" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F49" t="n">
-        <v>180.73</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>236.9166666666667</v>
+        <v>236.9333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>232</v>
       </c>
       <c r="C50" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" t="n">
         <v>232</v>
       </c>
       <c r="E50" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F50" t="n">
-        <v>2124.06</v>
+        <v>180.73</v>
       </c>
       <c r="G50" t="n">
-        <v>236.8666666666667</v>
+        <v>236.9166666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C51" t="n">
         <v>231</v>
       </c>
       <c r="D51" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E51" t="n">
         <v>231</v>
       </c>
       <c r="F51" t="n">
-        <v>168.2354</v>
+        <v>2124.06</v>
       </c>
       <c r="G51" t="n">
-        <v>236.8166666666667</v>
+        <v>236.8666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>231</v>
       </c>
       <c r="C52" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D52" t="n">
         <v>231</v>
       </c>
       <c r="E52" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F52" t="n">
-        <v>8472.379199999999</v>
+        <v>168.2354</v>
       </c>
       <c r="G52" t="n">
-        <v>236.7666666666667</v>
+        <v>236.8166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C53" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D53" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E53" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F53" t="n">
-        <v>11335.4655</v>
+        <v>8472.379199999999</v>
       </c>
       <c r="G53" t="n">
-        <v>236.6833333333333</v>
+        <v>236.7666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C54" t="n">
         <v>228</v>
       </c>
       <c r="D54" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E54" t="n">
         <v>228</v>
       </c>
       <c r="F54" t="n">
-        <v>1534.3443</v>
+        <v>11335.4655</v>
       </c>
       <c r="G54" t="n">
-        <v>236.6</v>
+        <v>236.6833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>228</v>
       </c>
       <c r="F55" t="n">
-        <v>1650</v>
+        <v>1534.3443</v>
       </c>
       <c r="G55" t="n">
-        <v>236.5333333333333</v>
+        <v>236.6</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>228</v>
       </c>
       <c r="F56" t="n">
-        <v>2739.7902</v>
+        <v>1650</v>
       </c>
       <c r="G56" t="n">
-        <v>236.4666666666667</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F57" t="n">
-        <v>4.6345</v>
+        <v>2739.7902</v>
       </c>
       <c r="G57" t="n">
-        <v>236.4333333333333</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F58" t="n">
-        <v>58.1123</v>
+        <v>4.6345</v>
       </c>
       <c r="G58" t="n">
-        <v>236.3833333333333</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>229</v>
       </c>
       <c r="F59" t="n">
-        <v>1268.59</v>
+        <v>58.1123</v>
       </c>
       <c r="G59" t="n">
-        <v>236.2666666666667</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>229</v>
       </c>
       <c r="F60" t="n">
-        <v>1400</v>
+        <v>1268.59</v>
       </c>
       <c r="G60" t="n">
-        <v>236.0833333333333</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F61" t="n">
-        <v>6245.9101</v>
+        <v>1400</v>
       </c>
       <c r="G61" t="n">
-        <v>235.8833333333333</v>
+        <v>236.0833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C62" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D62" t="n">
         <v>228</v>
       </c>
       <c r="E62" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F62" t="n">
-        <v>30107.1861</v>
+        <v>6245.9101</v>
       </c>
       <c r="G62" t="n">
-        <v>235.6666666666667</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C63" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D63" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E63" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F63" t="n">
-        <v>8479.0718</v>
+        <v>30107.1861</v>
       </c>
       <c r="G63" t="n">
-        <v>235.4166666666667</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C64" t="n">
         <v>225</v>
       </c>
       <c r="D64" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E64" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F64" t="n">
-        <v>1831.6752</v>
+        <v>8479.0718</v>
       </c>
       <c r="G64" t="n">
-        <v>235.1666666666667</v>
+        <v>235.4166666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>225</v>
       </c>
       <c r="C65" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E65" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F65" t="n">
-        <v>8625.4354</v>
+        <v>1831.6752</v>
       </c>
       <c r="G65" t="n">
-        <v>234.95</v>
+        <v>235.1666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>225</v>
+      </c>
+      <c r="C66" t="n">
         <v>226</v>
       </c>
-      <c r="C66" t="n">
-        <v>229</v>
-      </c>
       <c r="D66" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E66" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F66" t="n">
-        <v>15789.666</v>
+        <v>8625.4354</v>
       </c>
       <c r="G66" t="n">
-        <v>234.7833333333333</v>
+        <v>234.95</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C67" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67" t="n">
         <v>230</v>
       </c>
       <c r="E67" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F67" t="n">
-        <v>334.4779</v>
+        <v>15789.666</v>
       </c>
       <c r="G67" t="n">
-        <v>234.6333333333333</v>
+        <v>234.7833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F68" t="n">
-        <v>3408.1056</v>
+        <v>334.4779</v>
       </c>
       <c r="G68" t="n">
-        <v>234.4833333333333</v>
+        <v>234.6333333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C69" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D69" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E69" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F69" t="n">
-        <v>503.4006</v>
+        <v>3408.1056</v>
       </c>
       <c r="G69" t="n">
-        <v>234.2833333333333</v>
+        <v>234.4833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" t="n">
         <v>230</v>
       </c>
       <c r="D70" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E70" t="n">
         <v>230</v>
       </c>
       <c r="F70" t="n">
-        <v>117.8512</v>
+        <v>503.4006</v>
       </c>
       <c r="G70" t="n">
-        <v>234.0833333333333</v>
+        <v>234.2833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>230</v>
       </c>
       <c r="F71" t="n">
-        <v>885.22</v>
+        <v>117.8512</v>
       </c>
       <c r="G71" t="n">
-        <v>233.8666666666667</v>
+        <v>234.0833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>230</v>
       </c>
       <c r="C72" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D72" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E72" t="n">
         <v>230</v>
       </c>
       <c r="F72" t="n">
-        <v>1250</v>
+        <v>885.22</v>
       </c>
       <c r="G72" t="n">
-        <v>233.7333333333333</v>
+        <v>233.8666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>230</v>
+      </c>
+      <c r="C73" t="n">
         <v>234</v>
       </c>
-      <c r="C73" t="n">
-        <v>235</v>
-      </c>
       <c r="D73" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E73" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="G73" t="n">
-        <v>233.6666666666667</v>
+        <v>233.7333333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>234</v>
       </c>
       <c r="C74" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D74" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E74" t="n">
         <v>234</v>
       </c>
       <c r="F74" t="n">
-        <v>31.7737</v>
+        <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>233.5833333333333</v>
+        <v>233.6666666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>234</v>
       </c>
       <c r="C75" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D75" t="n">
         <v>234</v>
       </c>
       <c r="E75" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F75" t="n">
         <v>31.7737</v>
       </c>
       <c r="G75" t="n">
-        <v>233.4</v>
+        <v>233.5833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C76" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D76" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E76" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F76" t="n">
-        <v>1904.9355</v>
+        <v>31.7737</v>
       </c>
       <c r="G76" t="n">
-        <v>233.25</v>
+        <v>233.4</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C77" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E77" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F77" t="n">
-        <v>145.5369</v>
+        <v>1904.9355</v>
       </c>
       <c r="G77" t="n">
-        <v>233.1</v>
+        <v>233.25</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E78" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F78" t="n">
-        <v>3664.7525</v>
+        <v>145.5369</v>
       </c>
       <c r="G78" t="n">
-        <v>232.9833333333333</v>
+        <v>233.1</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C79" t="n">
         <v>230</v>
       </c>
       <c r="D79" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E79" t="n">
         <v>230</v>
       </c>
       <c r="F79" t="n">
-        <v>5545.805</v>
+        <v>3664.7525</v>
       </c>
       <c r="G79" t="n">
-        <v>232.9333333333333</v>
+        <v>232.9833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C80" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D80" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E80" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F80" t="n">
-        <v>3250</v>
+        <v>5545.805</v>
       </c>
       <c r="G80" t="n">
         <v>232.9333333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D81" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E81" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F81" t="n">
-        <v>7814.7038</v>
+        <v>3250</v>
       </c>
       <c r="G81" t="n">
-        <v>232.8666666666667</v>
+        <v>232.9333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" t="n">
         <v>230</v>
       </c>
       <c r="D82" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E82" t="n">
         <v>230</v>
       </c>
       <c r="F82" t="n">
-        <v>330.7748</v>
+        <v>7814.7038</v>
       </c>
       <c r="G82" t="n">
-        <v>232.8166666666667</v>
+        <v>232.8666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,10 +2762,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C83" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" t="n">
         <v>231</v>
@@ -2526,12 +2774,15 @@
         <v>230</v>
       </c>
       <c r="F83" t="n">
-        <v>727.285</v>
+        <v>330.7748</v>
       </c>
       <c r="G83" t="n">
-        <v>232.8</v>
+        <v>232.8166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>230</v>
       </c>
       <c r="F84" t="n">
-        <v>1342.4368</v>
+        <v>727.285</v>
       </c>
       <c r="G84" t="n">
-        <v>232.7333333333333</v>
+        <v>232.8</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>230</v>
       </c>
       <c r="C85" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E85" t="n">
         <v>230</v>
       </c>
       <c r="F85" t="n">
-        <v>1020.0593</v>
+        <v>1342.4368</v>
       </c>
       <c r="G85" t="n">
-        <v>232.65</v>
+        <v>232.7333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F86" t="n">
-        <v>4.4508</v>
+        <v>1020.0593</v>
       </c>
       <c r="G86" t="n">
-        <v>232.4833333333333</v>
+        <v>232.65</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C87" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D87" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E87" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F87" t="n">
-        <v>36547.3698</v>
+        <v>4.4508</v>
       </c>
       <c r="G87" t="n">
-        <v>232.05</v>
+        <v>232.4833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D88" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E88" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F88" t="n">
-        <v>2120</v>
+        <v>36547.3698</v>
       </c>
       <c r="G88" t="n">
-        <v>231.9333333333333</v>
+        <v>232.05</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C89" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D89" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E89" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F89" t="n">
-        <v>8021.0461</v>
+        <v>2120</v>
       </c>
       <c r="G89" t="n">
-        <v>231.7833333333333</v>
+        <v>231.9333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C90" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D90" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E90" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F90" t="n">
-        <v>1256.336</v>
+        <v>8021.0461</v>
       </c>
       <c r="G90" t="n">
-        <v>231.6</v>
+        <v>231.7833333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C91" t="n">
         <v>229</v>
       </c>
       <c r="D91" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E91" t="n">
         <v>229</v>
       </c>
       <c r="F91" t="n">
-        <v>28.9227</v>
+        <v>1256.336</v>
       </c>
       <c r="G91" t="n">
-        <v>231.4333333333333</v>
+        <v>231.6</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>229</v>
       </c>
       <c r="F92" t="n">
-        <v>155.4724</v>
+        <v>28.9227</v>
       </c>
       <c r="G92" t="n">
-        <v>231.3333333333333</v>
+        <v>231.4333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>229</v>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>155.4724</v>
       </c>
       <c r="G93" t="n">
-        <v>231.1833333333333</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>229</v>
       </c>
       <c r="F94" t="n">
-        <v>603.3323</v>
+        <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>231.0333333333333</v>
+        <v>231.1833333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>229</v>
       </c>
       <c r="F95" t="n">
-        <v>741.1953</v>
+        <v>603.3323</v>
       </c>
       <c r="G95" t="n">
-        <v>230.8833333333333</v>
+        <v>231.0333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>229</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>741.1953</v>
       </c>
       <c r="G96" t="n">
-        <v>230.8166666666667</v>
+        <v>230.8833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>229</v>
       </c>
       <c r="F97" t="n">
-        <v>202.2803</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>230.65</v>
+        <v>230.8166666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>229</v>
       </c>
       <c r="C98" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D98" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E98" t="n">
         <v>229</v>
       </c>
       <c r="F98" t="n">
-        <v>1984.1746</v>
+        <v>202.2803</v>
       </c>
       <c r="G98" t="n">
-        <v>230.5666666666667</v>
+        <v>230.65</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D99" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E99" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>1984.1746</v>
       </c>
       <c r="G99" t="n">
-        <v>230.4666666666667</v>
+        <v>230.5666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,10 +3258,10 @@
         <v>230</v>
       </c>
       <c r="C100" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D100" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E100" t="n">
         <v>230</v>
@@ -2971,9 +3270,12 @@
         <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>230.3833333333333</v>
+        <v>230.4666666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>230</v>
       </c>
       <c r="C101" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D101" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E101" t="n">
         <v>230</v>
       </c>
       <c r="F101" t="n">
-        <v>1003.5965</v>
+        <v>250</v>
       </c>
       <c r="G101" t="n">
-        <v>230.2666666666667</v>
+        <v>230.3833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>1003.5965</v>
       </c>
       <c r="G102" t="n">
-        <v>230.25</v>
+        <v>230.2666666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F103" t="n">
-        <v>184.9568</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>230.2</v>
+        <v>230.25</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F104" t="n">
-        <v>127.0922</v>
+        <v>184.9568</v>
       </c>
       <c r="G104" t="n">
-        <v>230.05</v>
+        <v>230.2</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C105" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D105" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E105" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F105" t="n">
-        <v>1825</v>
+        <v>127.0922</v>
       </c>
       <c r="G105" t="n">
-        <v>229.9333333333333</v>
+        <v>230.05</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>229</v>
+      </c>
+      <c r="C106" t="n">
         <v>231</v>
       </c>
-      <c r="C106" t="n">
-        <v>232</v>
-      </c>
       <c r="D106" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E106" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F106" t="n">
-        <v>2500</v>
+        <v>1825</v>
       </c>
       <c r="G106" t="n">
-        <v>229.8333333333333</v>
+        <v>229.9333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>231</v>
+      </c>
+      <c r="C107" t="n">
         <v>232</v>
       </c>
-      <c r="C107" t="n">
-        <v>235</v>
-      </c>
       <c r="D107" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E107" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F107" t="n">
-        <v>6951</v>
+        <v>2500</v>
       </c>
       <c r="G107" t="n">
-        <v>229.8</v>
+        <v>229.8333333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C108" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D108" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E108" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F108" t="n">
-        <v>3831.5851</v>
+        <v>6951</v>
       </c>
       <c r="G108" t="n">
-        <v>229.6833333333333</v>
+        <v>229.8</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>230</v>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>3831.5851</v>
       </c>
       <c r="G109" t="n">
-        <v>229.65</v>
+        <v>229.6833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3225,15 +3554,18 @@
         <v>230</v>
       </c>
       <c r="E110" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F110" t="n">
-        <v>5626.4452</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>229.6333333333333</v>
+        <v>229.65</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3251,15 +3583,18 @@
         <v>230</v>
       </c>
       <c r="E111" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F111" t="n">
-        <v>2.7818</v>
+        <v>5626.4452</v>
       </c>
       <c r="G111" t="n">
-        <v>229.6166666666667</v>
+        <v>229.6333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F112" t="n">
-        <v>888.503</v>
+        <v>2.7818</v>
       </c>
       <c r="G112" t="n">
-        <v>229.6</v>
+        <v>229.6166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>229</v>
       </c>
       <c r="F113" t="n">
-        <v>2400</v>
+        <v>888.503</v>
       </c>
       <c r="G113" t="n">
-        <v>229.6166666666667</v>
+        <v>229.6</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C114" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D114" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E114" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F114" t="n">
-        <v>5534</v>
+        <v>2400</v>
       </c>
       <c r="G114" t="n">
-        <v>229.7</v>
+        <v>229.6166666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C115" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D115" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>5534</v>
       </c>
       <c r="G115" t="n">
-        <v>229.8</v>
+        <v>229.7</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F116" t="n">
-        <v>147.959</v>
+        <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>229.85</v>
+        <v>229.8</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C117" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D117" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E117" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="n">
-        <v>2657</v>
+        <v>147.959</v>
       </c>
       <c r="G117" t="n">
-        <v>229.9166666666667</v>
+        <v>229.85</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" t="n">
         <v>234</v>
@@ -3433,15 +3786,18 @@
         <v>234</v>
       </c>
       <c r="E118" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2657</v>
       </c>
       <c r="G118" t="n">
-        <v>230</v>
+        <v>229.9166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>234</v>
       </c>
       <c r="C119" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D119" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" t="n">
         <v>234</v>
       </c>
       <c r="F119" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G119" t="n">
-        <v>230.1</v>
+        <v>230</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>234</v>
+      </c>
+      <c r="C120" t="n">
         <v>235</v>
       </c>
-      <c r="C120" t="n">
-        <v>237</v>
-      </c>
       <c r="D120" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E120" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F120" t="n">
-        <v>10103</v>
+        <v>5500</v>
       </c>
       <c r="G120" t="n">
-        <v>230.2333333333333</v>
+        <v>230.1</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>235</v>
+      </c>
+      <c r="C121" t="n">
         <v>237</v>
       </c>
-      <c r="C121" t="n">
-        <v>239</v>
-      </c>
       <c r="D121" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E121" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="n">
-        <v>2540</v>
+        <v>10103</v>
       </c>
       <c r="G121" t="n">
-        <v>230.4166666666667</v>
+        <v>230.2333333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C122" t="n">
         <v>239</v>
@@ -3537,15 +3902,18 @@
         <v>239</v>
       </c>
       <c r="E122" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>2540</v>
       </c>
       <c r="G122" t="n">
-        <v>230.6166666666667</v>
+        <v>230.4166666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3569,10 +3937,13 @@
         <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>230.85</v>
+        <v>230.6166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3583,542 +3954,25 @@
         <v>239</v>
       </c>
       <c r="C124" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D124" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E124" t="n">
         <v>239</v>
       </c>
       <c r="F124" t="n">
-        <v>3373</v>
+        <v>250</v>
       </c>
       <c r="G124" t="n">
-        <v>231.1</v>
+        <v>230.85</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>240</v>
-      </c>
-      <c r="C125" t="n">
-        <v>241</v>
-      </c>
-      <c r="D125" t="n">
-        <v>241</v>
-      </c>
-      <c r="E125" t="n">
-        <v>240</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4288</v>
-      </c>
-      <c r="G125" t="n">
-        <v>231.35</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>236</v>
-      </c>
-      <c r="C126" t="n">
-        <v>235</v>
-      </c>
-      <c r="D126" t="n">
-        <v>236</v>
-      </c>
-      <c r="E126" t="n">
-        <v>235</v>
-      </c>
-      <c r="F126" t="n">
-        <v>262.26</v>
-      </c>
-      <c r="G126" t="n">
-        <v>231.45</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>235</v>
-      </c>
-      <c r="C127" t="n">
-        <v>233</v>
-      </c>
-      <c r="D127" t="n">
-        <v>235</v>
-      </c>
-      <c r="E127" t="n">
-        <v>233</v>
-      </c>
-      <c r="F127" t="n">
-        <v>300</v>
-      </c>
-      <c r="G127" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>232</v>
-      </c>
-      <c r="C128" t="n">
-        <v>232</v>
-      </c>
-      <c r="D128" t="n">
-        <v>232</v>
-      </c>
-      <c r="E128" t="n">
-        <v>232</v>
-      </c>
-      <c r="F128" t="n">
-        <v>262.2595</v>
-      </c>
-      <c r="G128" t="n">
-        <v>231.5666666666667</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>232</v>
-      </c>
-      <c r="C129" t="n">
-        <v>231</v>
-      </c>
-      <c r="D129" t="n">
-        <v>232</v>
-      </c>
-      <c r="E129" t="n">
-        <v>231</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1072.9016</v>
-      </c>
-      <c r="G129" t="n">
-        <v>231.5833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>231</v>
-      </c>
-      <c r="C130" t="n">
-        <v>231</v>
-      </c>
-      <c r="D130" t="n">
-        <v>232</v>
-      </c>
-      <c r="E130" t="n">
-        <v>231</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2471.073</v>
-      </c>
-      <c r="G130" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>232</v>
-      </c>
-      <c r="C131" t="n">
-        <v>231</v>
-      </c>
-      <c r="D131" t="n">
-        <v>232</v>
-      </c>
-      <c r="E131" t="n">
-        <v>231</v>
-      </c>
-      <c r="F131" t="n">
-        <v>424.8389</v>
-      </c>
-      <c r="G131" t="n">
-        <v>231.6166666666667</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>231</v>
-      </c>
-      <c r="C132" t="n">
-        <v>231</v>
-      </c>
-      <c r="D132" t="n">
-        <v>231</v>
-      </c>
-      <c r="E132" t="n">
-        <v>231</v>
-      </c>
-      <c r="F132" t="n">
-        <v>750</v>
-      </c>
-      <c r="G132" t="n">
-        <v>231.5666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>232</v>
-      </c>
-      <c r="C133" t="n">
-        <v>232</v>
-      </c>
-      <c r="D133" t="n">
-        <v>232</v>
-      </c>
-      <c r="E133" t="n">
-        <v>232</v>
-      </c>
-      <c r="F133" t="n">
-        <v>862.0689</v>
-      </c>
-      <c r="G133" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>231</v>
-      </c>
-      <c r="C134" t="n">
-        <v>231</v>
-      </c>
-      <c r="D134" t="n">
-        <v>231</v>
-      </c>
-      <c r="E134" t="n">
-        <v>231</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1921.683</v>
-      </c>
-      <c r="G134" t="n">
-        <v>231.4666666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>231</v>
-      </c>
-      <c r="C135" t="n">
-        <v>231</v>
-      </c>
-      <c r="D135" t="n">
-        <v>231</v>
-      </c>
-      <c r="E135" t="n">
-        <v>231</v>
-      </c>
-      <c r="F135" t="n">
-        <v>500</v>
-      </c>
-      <c r="G135" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>231</v>
-      </c>
-      <c r="C136" t="n">
-        <v>231</v>
-      </c>
-      <c r="D136" t="n">
-        <v>231</v>
-      </c>
-      <c r="E136" t="n">
-        <v>231</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3064.38</v>
-      </c>
-      <c r="G136" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>231</v>
-      </c>
-      <c r="C137" t="n">
-        <v>230</v>
-      </c>
-      <c r="D137" t="n">
-        <v>231</v>
-      </c>
-      <c r="E137" t="n">
-        <v>230</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G137" t="n">
-        <v>231.4833333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>231</v>
-      </c>
-      <c r="C138" t="n">
-        <v>231</v>
-      </c>
-      <c r="D138" t="n">
-        <v>231</v>
-      </c>
-      <c r="E138" t="n">
-        <v>231</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>231</v>
-      </c>
-      <c r="C139" t="n">
-        <v>231</v>
-      </c>
-      <c r="D139" t="n">
-        <v>231</v>
-      </c>
-      <c r="E139" t="n">
-        <v>231</v>
-      </c>
-      <c r="F139" t="n">
-        <v>980</v>
-      </c>
-      <c r="G139" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>240</v>
-      </c>
-      <c r="C140" t="n">
-        <v>240</v>
-      </c>
-      <c r="D140" t="n">
-        <v>240</v>
-      </c>
-      <c r="E140" t="n">
-        <v>240</v>
-      </c>
-      <c r="F140" t="n">
-        <v>10</v>
-      </c>
-      <c r="G140" t="n">
-        <v>231.6166666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>240</v>
-      </c>
-      <c r="C141" t="n">
-        <v>241</v>
-      </c>
-      <c r="D141" t="n">
-        <v>241</v>
-      </c>
-      <c r="E141" t="n">
-        <v>240</v>
-      </c>
-      <c r="F141" t="n">
-        <v>250</v>
-      </c>
-      <c r="G141" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>240</v>
-      </c>
-      <c r="C142" t="n">
-        <v>240</v>
-      </c>
-      <c r="D142" t="n">
-        <v>240</v>
-      </c>
-      <c r="E142" t="n">
-        <v>240</v>
-      </c>
-      <c r="F142" t="n">
-        <v>216</v>
-      </c>
-      <c r="G142" t="n">
-        <v>231.9666666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>240</v>
-      </c>
-      <c r="C143" t="n">
-        <v>241</v>
-      </c>
-      <c r="D143" t="n">
-        <v>241</v>
-      </c>
-      <c r="E143" t="n">
-        <v>240</v>
-      </c>
-      <c r="F143" t="n">
-        <v>18</v>
-      </c>
-      <c r="G143" t="n">
-        <v>232.1333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>237</v>
-      </c>
-      <c r="C144" t="n">
-        <v>238</v>
-      </c>
-      <c r="D144" t="n">
-        <v>238</v>
-      </c>
-      <c r="E144" t="n">
-        <v>237</v>
-      </c>
-      <c r="F144" t="n">
-        <v>518</v>
-      </c>
-      <c r="G144" t="n">
-        <v>232.25</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
+      <c r="I124" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
